--- a/doc/original_document/Project management Database Notes 30DEC2011.xlsx
+++ b/doc/original_document/Project management Database Notes 30DEC2011.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="23460" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Management" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,17 @@
     <sheet name="Knowledge management" sheetId="9" r:id="rId10"/>
     <sheet name="Financial Tracking" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="324">
   <si>
     <t>Phase</t>
   </si>
@@ -990,6 +995,12 @@
   </si>
   <si>
     <t>Customer/Supplier Document Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t> </t>
   </si>
 </sst>
 </file>
@@ -999,7 +1010,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,55 +1124,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1169,321 +1180,321 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1491,21 +1502,21 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1514,7 +1525,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1522,22 +1533,22 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,30 +1557,30 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1578,36 +1589,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,32 +1626,32 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1648,7 +1659,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1657,51 +1668,51 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1716,9 +1727,6 @@
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1783,87 +1791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1965,15 +1892,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2028,6 +1946,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2334,780 +2345,788 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="18" style="68" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="18" style="40" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="56" customFormat="1" ht="52.5">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="A1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:11" s="68" customFormat="1" ht="26.25">
-      <c r="A2" s="90" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" s="40" customFormat="1" ht="25">
+      <c r="A2" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-    </row>
-    <row r="3" spans="1:11" s="68" customFormat="1" ht="52.5">
-      <c r="A3" s="90" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" s="40" customFormat="1" ht="50">
+      <c r="A3" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-    </row>
-    <row r="4" spans="1:11" s="56" customFormat="1" ht="26.25">
-      <c r="A4" s="70" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+    </row>
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="56" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="68"/>
-    </row>
-    <row r="5" spans="1:11" s="56" customFormat="1" ht="26.25">
-      <c r="A5" s="70" t="s">
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="56" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="68"/>
-    </row>
-    <row r="6" spans="1:11" s="56" customFormat="1" ht="26.25">
-      <c r="A6" s="70" t="s">
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="A6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:11" s="56" customFormat="1" ht="26.25">
-      <c r="A7" s="75" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="A7" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="K7" s="68"/>
-    </row>
-    <row r="8" spans="1:11" s="56" customFormat="1" ht="26.25">
-      <c r="A8" s="50" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="A8" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="68"/>
-    </row>
-    <row r="9" spans="1:11" s="56" customFormat="1" ht="26.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="83"/>
-      <c r="K9" s="68"/>
-    </row>
-    <row r="10" spans="1:11" s="56" customFormat="1" ht="53.25" thickBot="1">
-      <c r="A10" s="71" t="s">
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="A9" s="122"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="55"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="51" thickBot="1">
+      <c r="A10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="K10" s="68"/>
-    </row>
-    <row r="11" spans="1:11" s="56" customFormat="1" ht="27" thickBot="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="K11" s="68"/>
-    </row>
-    <row r="12" spans="1:11" s="56" customFormat="1" ht="52.5">
-      <c r="A12" s="69" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="26" thickBot="1">
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" s="28" customFormat="1" ht="50">
+      <c r="A12" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="77"/>
-      <c r="K12" s="68"/>
-    </row>
-    <row r="13" spans="1:11" s="56" customFormat="1" ht="52.5">
-      <c r="A13" s="70" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="49"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" s="28" customFormat="1" ht="50">
+      <c r="A13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="68"/>
-    </row>
-    <row r="14" spans="1:11" s="56" customFormat="1" ht="53.25" thickBot="1">
-      <c r="A14" s="71" t="s">
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="51" thickBot="1">
+      <c r="A14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="68"/>
-    </row>
-    <row r="15" spans="1:11" s="56" customFormat="1" ht="27" thickBot="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="K15" s="68"/>
-    </row>
-    <row r="16" spans="1:11" s="56" customFormat="1">
-      <c r="A16" s="30" t="s">
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="26" thickBot="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="G15" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" s="28" customFormat="1">
+      <c r="A16" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="1"/>
-      <c r="K16" s="68"/>
-    </row>
-    <row r="17" spans="1:12" s="56" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="K17" s="68"/>
-    </row>
-    <row r="18" spans="1:12" s="56" customFormat="1">
-      <c r="K18" s="68"/>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="K19" s="68"/>
-    </row>
-    <row r="20" spans="1:12" ht="63.75" thickBot="1">
-      <c r="A20" s="58" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:12" s="28" customFormat="1" ht="15" thickBot="1">
+      <c r="A17" s="117"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:12" s="28" customFormat="1">
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="61" thickBot="1">
+      <c r="A20" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="115" t="s">
+      <c r="H20" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="I20" s="114" t="s">
+      <c r="I20" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="J20" s="114" t="s">
+      <c r="J20" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="K20" s="114" t="s">
+      <c r="K20" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="L20" s="78" t="s">
+      <c r="L20" s="50" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="117"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="86"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="60"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="119"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="119"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="88"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="60"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="119"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="88"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="60"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="119"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="88"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="5"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="119"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="88"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="119"/>
-    </row>
-    <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="5"/>
-      <c r="B28" s="16" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="88"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4"/>
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="119"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="88"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="5"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="119"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="88"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="5"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="119"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="88"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="5"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="119"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="88"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="5"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="119"/>
-    </row>
-    <row r="33" spans="1:12" ht="30">
-      <c r="A33" s="5"/>
-      <c r="B33" s="16" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="88"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4"/>
+      <c r="B33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="119"/>
-    </row>
-    <row r="34" spans="1:12" ht="60">
-      <c r="A34" s="5"/>
-      <c r="B34" s="16" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="88"/>
+    </row>
+    <row r="34" spans="1:12" ht="56">
+      <c r="A34" s="4"/>
+      <c r="B34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="119"/>
-    </row>
-    <row r="35" spans="1:12" ht="45">
-      <c r="A35" s="5"/>
-      <c r="B35" s="16" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="88"/>
+    </row>
+    <row r="35" spans="1:12" ht="28">
+      <c r="A35" s="4"/>
+      <c r="B35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="119"/>
-    </row>
-    <row r="36" spans="1:12" ht="30">
-      <c r="A36" s="5"/>
-      <c r="B36" s="16" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="88"/>
+    </row>
+    <row r="36" spans="1:12" ht="28">
+      <c r="A36" s="4"/>
+      <c r="B36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="119"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="88"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="9"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="119"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="88"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="119"/>
-    </row>
-    <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="5"/>
-      <c r="B39" s="16" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="88"/>
+    </row>
+    <row r="39" spans="1:12" ht="28">
+      <c r="A39" s="4"/>
+      <c r="B39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="119"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="88"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="5"/>
-      <c r="B40" s="16" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="119"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="88"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="5"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="119"/>
-    </row>
-    <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="5"/>
-      <c r="B42" s="16" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="88"/>
+    </row>
+    <row r="42" spans="1:12" ht="28">
+      <c r="A42" s="4"/>
+      <c r="B42" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="119"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="88"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="5"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="119"/>
-    </row>
-    <row r="44" spans="1:12" ht="30">
-      <c r="A44" s="5"/>
-      <c r="B44" s="16" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="88"/>
+    </row>
+    <row r="44" spans="1:12" ht="28">
+      <c r="A44" s="4"/>
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="119"/>
-    </row>
-    <row r="45" spans="1:12" ht="30">
-      <c r="A45" s="5"/>
-      <c r="B45" s="16" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="88"/>
+    </row>
+    <row r="45" spans="1:12" ht="28">
+      <c r="A45" s="4"/>
+      <c r="B45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="119"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="88"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="5"/>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="119"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="88"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="9"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="119"/>
-    </row>
-    <row r="48" spans="1:12" ht="30">
-      <c r="A48" s="8" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="88"/>
+    </row>
+    <row r="48" spans="1:12" ht="28">
+      <c r="A48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="119"/>
-    </row>
-    <row r="49" spans="1:12" ht="30">
-      <c r="A49" s="5"/>
-      <c r="B49" s="16" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="88"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="4"/>
+      <c r="B49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="119"/>
-    </row>
-    <row r="50" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="19" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="88"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="121"/>
-      <c r="L50" s="122"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
@@ -3115,17 +3134,17 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" display="wengkin@jenkins-asia.com"/>
     <hyperlink ref="C13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3137,15 +3156,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="74" t="s">
         <v>273</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3157,266 +3181,271 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="68" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="61" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3424,178 +3453,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:M4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
@@ -3603,110 +3632,110 @@
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="89" t="s">
+      <c r="N9" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="89" t="s">
+      <c r="O9" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="89" t="s">
+      <c r="P9" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="89" t="s">
+      <c r="Q9" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="89" t="s">
+      <c r="R9" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="89" t="s">
+      <c r="S9" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="89" t="s">
+      <c r="T9" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="89" t="s">
+      <c r="U9" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="V9" s="89" t="s">
+      <c r="V9" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="W9" s="89" t="s">
+      <c r="W9" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="89" t="s">
+      <c r="X9" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="89" t="s">
+      <c r="Y9" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
@@ -3714,115 +3743,120 @@
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="54" t="s">
+      <c r="L13" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="89" t="s">
+      <c r="N13" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="89" t="s">
+      <c r="O13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="89" t="s">
+      <c r="P13" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="Q13" s="89" t="s">
+      <c r="Q13" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="R13" s="89" t="s">
+      <c r="R13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="S13" s="89" t="s">
+      <c r="S13" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="T13" s="89" t="s">
+      <c r="T13" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="U13" s="89" t="s">
+      <c r="U13" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="V13" s="89" t="s">
+      <c r="V13" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="W13" s="89" t="s">
+      <c r="W13" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="X13" s="89" t="s">
+      <c r="X13" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="89" t="s">
+      <c r="Y13" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="Z13" s="89" t="s">
+      <c r="Z13" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="AA13" s="89" t="s">
+      <c r="AA13" s="61" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" s="54" t="s">
+      <c r="AA14" s="26" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="D16" s="40" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -3832,6 +3866,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3843,236 +3882,240 @@
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="8" width="16.85546875" style="68" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="12" width="20.5703125" style="68" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="8" width="16.83203125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="12" width="20.5" style="40" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" customWidth="1"/>
+    <col min="15" max="15" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="97" t="s">
+      <c r="N1" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="97" t="s">
+      <c r="O1" s="66" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="54" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="26" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="95"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="N5" s="98"/>
-      <c r="O5" s="54"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="95"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="N6" s="98"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="54"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="N8" s="98"/>
-      <c r="O8" s="54"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4084,88 +4127,88 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="68" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="40" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="17" width="20.42578125" style="68" customWidth="1"/>
-    <col min="18" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="17" width="20.5" style="40" customWidth="1"/>
+    <col min="18" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="79"/>
+      <c r="P1" s="51"/>
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="79"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="51"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:19">
@@ -4195,86 +4238,86 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="101"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="69" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="104"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="73"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="72">
         <v>0.8</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="72">
         <v>0.8</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103">
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72">
         <v>0.4</v>
       </c>
-      <c r="L13" s="103">
+      <c r="L13" s="72">
         <v>0.2</v>
       </c>
-      <c r="M13" s="103">
+      <c r="M13" s="72">
         <v>0.2</v>
       </c>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
@@ -4297,122 +4340,127 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="68"/>
+      <c r="C16" s="40"/>
       <c r="E16"/>
-      <c r="K16" s="68"/>
-      <c r="M16" s="68"/>
+      <c r="K16" s="40"/>
+      <c r="M16" s="40"/>
       <c r="N16"/>
-      <c r="S16" s="68"/>
+      <c r="S16" s="40"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="54" t="s">
+      <c r="L17" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="M17" s="54" t="s">
+      <c r="M17" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="P17" s="54" t="s">
+      <c r="P17" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="Q17" s="54" t="s">
+      <c r="Q17" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="R17" s="54" t="s">
+      <c r="R17" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="S17" s="54" t="s">
+      <c r="S17" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="T17" s="54" t="s">
+      <c r="T17" s="26" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="C19" s="68"/>
+      <c r="C19" s="40"/>
       <c r="E19"/>
-      <c r="K19" s="68"/>
-      <c r="M19" s="68"/>
+      <c r="K19" s="40"/>
+      <c r="M19" s="40"/>
       <c r="N19"/>
-      <c r="S19" s="68"/>
+      <c r="S19" s="40"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="C20" s="68"/>
+      <c r="C20" s="40"/>
       <c r="E20"/>
-      <c r="K20" s="68"/>
-      <c r="M20" s="68"/>
+      <c r="K20" s="40"/>
+      <c r="M20" s="40"/>
       <c r="N20"/>
-      <c r="S20" s="68"/>
+      <c r="S20" s="40"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="68"/>
+      <c r="C21" s="40"/>
       <c r="E21"/>
-      <c r="K21" s="68"/>
+      <c r="K21" s="40"/>
       <c r="Q21"/>
-      <c r="R21" s="68"/>
+      <c r="R21" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4424,27 +4472,27 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="4" width="19.28515625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="36" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="68" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="15.28515625" style="68" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="4" width="19.33203125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="36" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="15.33203125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="74" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="68" customFormat="1">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:1" s="40" customFormat="1">
+      <c r="A2" s="74" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4498,50 +4546,50 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="68" customFormat="1"/>
-    <row r="14" spans="1:1" s="68" customFormat="1">
-      <c r="A14" s="105" t="s">
+    <row r="13" spans="1:1" s="40" customFormat="1"/>
+    <row r="14" spans="1:1" s="40" customFormat="1">
+      <c r="A14" s="74" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="68" customFormat="1">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:1" s="40" customFormat="1">
+      <c r="A15" s="40" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="68" customFormat="1">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:1" s="40" customFormat="1">
+      <c r="A16" s="40" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="68" customFormat="1">
-      <c r="A17" s="68" t="s">
+    <row r="17" spans="1:18" s="40" customFormat="1">
+      <c r="A17" s="40" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="68" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:18" s="40" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="40" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="68" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="68" t="s">
+    <row r="19" spans="1:18" s="40" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="68" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="21" spans="1:18" s="68" customFormat="1">
-      <c r="A21" s="105" t="s">
+    <row r="20" spans="1:18" s="40" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:18" s="40" customFormat="1">
+      <c r="A21" s="74" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="68" customFormat="1">
-      <c r="A22" s="68" t="s">
+    <row r="22" spans="1:18" s="40" customFormat="1">
+      <c r="A22" s="40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="68" customFormat="1">
-      <c r="A23" s="68" t="s">
+    <row r="23" spans="1:18" s="40" customFormat="1">
+      <c r="A23" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4550,132 +4598,137 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="68" customFormat="1">
-      <c r="A25" s="68" t="s">
+    <row r="25" spans="1:18" s="40" customFormat="1">
+      <c r="A25" s="40" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="68" customFormat="1"/>
+    <row r="26" spans="1:18" s="40" customFormat="1"/>
     <row r="27" spans="1:18">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="54" t="s">
+      <c r="K27" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="L27" s="54" t="s">
+      <c r="L27" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="M27" s="54" t="s">
+      <c r="M27" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="N27" s="54" t="s">
+      <c r="N27" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="O27" s="54" t="s">
+      <c r="O27" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="P27" s="54" t="s">
+      <c r="P27" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q27" s="54" t="s">
+      <c r="Q27" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="R27" s="89" t="s">
+      <c r="R27" s="61" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4687,283 +4740,288 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" style="68" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="68" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="68" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="18.7109375" style="68" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="68" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="68" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="19.140625" style="68" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="18.6640625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5" style="40" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="40" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.1640625" style="40" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19" style="68" customWidth="1"/>
+    <col min="26" max="27" width="19" style="40" customWidth="1"/>
     <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" style="68" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" style="40" customWidth="1"/>
+    <col min="30" max="30" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="W1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="Y1" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AA1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AB1" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="AC1" s="54" t="s">
+      <c r="AC1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="54" t="s">
+      <c r="AD1" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="AE1" s="89" t="s">
+      <c r="AE1" s="61" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54" t="s">
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="89" t="s">
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="89" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="27" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4975,10 +5033,10 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -5006,7 +5064,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="68" customFormat="1"/>
+    <row r="4" spans="1:4" s="40" customFormat="1"/>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>268</v>
@@ -5078,6 +5136,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5089,58 +5152,58 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="74" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="26" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="74" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5169,13 +5232,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="68" customFormat="1">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:7" s="40" customFormat="1">
+      <c r="A14" s="40" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="74" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5196,6 +5259,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5207,250 +5275,255 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" style="68" customWidth="1"/>
-    <col min="17" max="17" width="33.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="68" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.6640625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="33.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" style="40" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="61" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="U2" s="54"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/original_document/Project management Database Notes 30DEC2011.xlsx
+++ b/doc/original_document/Project management Database Notes 30DEC2011.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="23460" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project Management" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="339">
   <si>
     <t>Phase</t>
   </si>
@@ -649,358 +649,426 @@
     <t>Engineering change notice</t>
   </si>
   <si>
+    <t>Task Request - (See Task sheet)</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Payment 1 Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory </t>
+  </si>
+  <si>
+    <t>Payment 3 schedule</t>
+  </si>
+  <si>
+    <t>Payment 1 status</t>
+  </si>
+  <si>
+    <t>Payment 2 status</t>
+  </si>
+  <si>
+    <t>Payment 3 status</t>
+  </si>
+  <si>
+    <t>Payment 2 schedule</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Internal Final price</t>
+  </si>
+  <si>
+    <t>External Final price</t>
+  </si>
+  <si>
+    <t>Delivery Date 1</t>
+  </si>
+  <si>
+    <t>Delivery Status 1</t>
+  </si>
+  <si>
+    <t>Delivery Date 2</t>
+  </si>
+  <si>
+    <t>Delivery Status 2</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>Project Costing per JKT07 - Project Control Sheet</t>
+  </si>
+  <si>
+    <t>level 1</t>
+  </si>
+  <si>
+    <t>level 2</t>
+  </si>
+  <si>
+    <t>level2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel </t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>level 3</t>
+  </si>
+  <si>
+    <t>direct customer</t>
+  </si>
+  <si>
+    <t>indirect customer</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>middle management</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>own project status &amp; external prices</t>
+  </si>
+  <si>
+    <t>involved tasks only</t>
+  </si>
+  <si>
+    <t>involved task only</t>
+  </si>
+  <si>
+    <t>own project status  and quote submission only</t>
+  </si>
+  <si>
+    <t>all database</t>
+  </si>
+  <si>
+    <t>own project status &amp; internal prices only</t>
+  </si>
+  <si>
+    <t>all project status &amp; internal prices only</t>
+  </si>
+  <si>
+    <t>all database, no access to any costing or prices</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Link to any part of the database</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Commenter</t>
+  </si>
+  <si>
+    <t>Comment Date</t>
+  </si>
+  <si>
+    <t>Comment to</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status changes (e.g. In progress to late)</t>
+  </si>
+  <si>
+    <t>New comments</t>
+  </si>
+  <si>
+    <t>New project/task assigments</t>
+  </si>
+  <si>
+    <t>New requests</t>
+  </si>
+  <si>
+    <t>New updates/revisions</t>
+  </si>
+  <si>
+    <t>Communications - Automatic email Notifications</t>
+  </si>
+  <si>
+    <t>Communications - Manual Email notifications</t>
+  </si>
+  <si>
+    <t>Purchase Order Issue (PO's)</t>
+  </si>
+  <si>
+    <t>Quotes to customer</t>
+  </si>
+  <si>
+    <t>Request for Quotations to factories/suppliers</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>direct supplier</t>
+  </si>
+  <si>
+    <t>indirect supplier</t>
+  </si>
+  <si>
+    <t>New customer complaints</t>
+  </si>
+  <si>
+    <t>Communication  - Discussion  thread (BBS style)</t>
+  </si>
+  <si>
+    <t>Search feature</t>
+  </si>
+  <si>
+    <t>Sample Level</t>
+  </si>
+  <si>
+    <t>Conceptual</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>Sample number</t>
+  </si>
+  <si>
+    <t>Sample Location 1/2/3/4/5</t>
+  </si>
+  <si>
+    <t>Depending on number of samples</t>
+  </si>
+  <si>
+    <t>Sample fabricator</t>
+  </si>
+  <si>
+    <t>Customer Approved</t>
+  </si>
+  <si>
+    <t>y/n</t>
+  </si>
+  <si>
+    <t>Jenkins Approved by</t>
+  </si>
+  <si>
+    <t>jenkins Approval date</t>
+  </si>
+  <si>
+    <t>Sample date</t>
+  </si>
+  <si>
+    <t>Customer Approval date</t>
+  </si>
+  <si>
+    <t>Sample Cost</t>
+  </si>
+  <si>
+    <t>Sample Order Number (PO number)</t>
+  </si>
+  <si>
+    <t>Root Cause Failure analysis</t>
+  </si>
+  <si>
+    <t>Team member</t>
+  </si>
+  <si>
+    <t>Estimated manhours per team member</t>
+  </si>
+  <si>
+    <t>Additional resources</t>
+  </si>
+  <si>
+    <t>Estimated additional resource internal cost</t>
+  </si>
+  <si>
+    <t>Estimated manpower internal cost</t>
+  </si>
+  <si>
+    <t>Project Specifications (See sheet project Management)</t>
+  </si>
+  <si>
+    <t>Incoming Payment Amount</t>
+  </si>
+  <si>
+    <t>Outgoing payment Amount</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Customer/Source</t>
+  </si>
+  <si>
+    <t>Planned Incoming Payment Date</t>
+  </si>
+  <si>
+    <t>Actual Incoming Payment Date</t>
+  </si>
+  <si>
+    <t>Incoming Payment Status</t>
+  </si>
+  <si>
+    <t>Planned Outgoing Payment Date</t>
+  </si>
+  <si>
+    <t>Actual Outgoing Payment Date</t>
+  </si>
+  <si>
+    <t>Outgoing Payment Status</t>
+  </si>
+  <si>
+    <t>Actual Incoming Payment Amount Received</t>
+  </si>
+  <si>
+    <t>Actual Outgoing Payment Amount Paid</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Document Description</t>
+  </si>
+  <si>
+    <t>Customer/Supplier Document Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>上传参考class.datei.php</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer PO Number</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attachment</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>Jenkins PO Number</t>
-  </si>
-  <si>
-    <t>Task Request - (See Task sheet)</t>
-  </si>
-  <si>
-    <t>Terms</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Payment 1 Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factory </t>
-  </si>
-  <si>
-    <t>Payment 3 schedule</t>
-  </si>
-  <si>
-    <t>Payment 1 status</t>
-  </si>
-  <si>
-    <t>Payment 2 status</t>
-  </si>
-  <si>
-    <t>Payment 3 status</t>
-  </si>
-  <si>
-    <t>Payment 2 schedule</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Account Payment</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Internal Final price</t>
-  </si>
-  <si>
-    <t>External Final price</t>
-  </si>
-  <si>
-    <t>Delivery Date 1</t>
-  </si>
-  <si>
-    <t>Delivery Status 1</t>
-  </si>
-  <si>
-    <t>Delivery Date 2</t>
-  </si>
-  <si>
-    <t>Delivery Status 2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer model number</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer part Number</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins model number</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins Part Number</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Final Total Amount Received</t>
-  </si>
-  <si>
-    <t>Customer PO Number</t>
-  </si>
-  <si>
-    <t>Not Paid</t>
-  </si>
-  <si>
-    <t>In Process</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Canceled</t>
-  </si>
-  <si>
-    <t>Project Costing per JKT07 - Project Control Sheet</t>
-  </si>
-  <si>
-    <t>level 1</t>
-  </si>
-  <si>
-    <t>level 2</t>
-  </si>
-  <si>
-    <t>level2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personnel </t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>level 3</t>
-  </si>
-  <si>
-    <t>direct customer</t>
-  </si>
-  <si>
-    <t>indirect customer</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>middle management</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>own project status &amp; external prices</t>
-  </si>
-  <si>
-    <t>involved tasks only</t>
-  </si>
-  <si>
-    <t>involved task only</t>
-  </si>
-  <si>
-    <t>own project status  and quote submission only</t>
-  </si>
-  <si>
-    <t>all database</t>
-  </si>
-  <si>
-    <t>own project status &amp; internal prices only</t>
-  </si>
-  <si>
-    <t>all project status &amp; internal prices only</t>
-  </si>
-  <si>
-    <t>all database, no access to any costing or prices</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Link to any part of the database</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Commenter</t>
-  </si>
-  <si>
-    <t>Comment Date</t>
-  </si>
-  <si>
-    <t>Comment to</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status changes (e.g. In progress to late)</t>
-  </si>
-  <si>
-    <t>New comments</t>
-  </si>
-  <si>
-    <t>New project/task assigments</t>
-  </si>
-  <si>
-    <t>New requests</t>
-  </si>
-  <si>
-    <t>New updates/revisions</t>
-  </si>
-  <si>
-    <t>Communications - Automatic email Notifications</t>
-  </si>
-  <si>
-    <t>Communications - Manual Email notifications</t>
-  </si>
-  <si>
-    <t>Purchase Order Issue (PO's)</t>
-  </si>
-  <si>
-    <t>Quotes to customer</t>
-  </si>
-  <si>
-    <t>Request for Quotations to factories/suppliers</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>direct supplier</t>
-  </si>
-  <si>
-    <t>indirect supplier</t>
-  </si>
-  <si>
-    <t>New customer complaints</t>
-  </si>
-  <si>
-    <t>Communication  - Discussion  thread (BBS style)</t>
-  </si>
-  <si>
-    <t>Search feature</t>
-  </si>
-  <si>
-    <t>Jenkins Part Number</t>
-  </si>
-  <si>
-    <t>Customer model number</t>
-  </si>
-  <si>
-    <t>Jenkins model number</t>
-  </si>
-  <si>
-    <t>Sample Level</t>
-  </si>
-  <si>
-    <t>Conceptual</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>Sample number</t>
-  </si>
-  <si>
-    <t>Sample Location 1/2/3/4/5</t>
-  </si>
-  <si>
-    <t>Depending on number of samples</t>
-  </si>
-  <si>
-    <t>Sample fabricator</t>
-  </si>
-  <si>
-    <t>Customer Approved</t>
-  </si>
-  <si>
-    <t>y/n</t>
-  </si>
-  <si>
-    <t>Jenkins Approved by</t>
-  </si>
-  <si>
-    <t>jenkins Approval date</t>
-  </si>
-  <si>
-    <t>Sample date</t>
-  </si>
-  <si>
-    <t>Customer Approval date</t>
-  </si>
-  <si>
-    <t>Sample Cost</t>
-  </si>
-  <si>
-    <t>Sample Order Number (PO number)</t>
-  </si>
-  <si>
-    <t>Root Cause Failure analysis</t>
-  </si>
-  <si>
-    <t>Team member</t>
-  </si>
-  <si>
-    <t>Estimated manhours per team member</t>
-  </si>
-  <si>
-    <t>Additional resources</t>
-  </si>
-  <si>
-    <t>Estimated additional resource internal cost</t>
-  </si>
-  <si>
-    <t>Estimated manpower internal cost</t>
-  </si>
-  <si>
-    <t>Project Specifications (See sheet project Management)</t>
-  </si>
-  <si>
-    <t>Incoming Payment Amount</t>
-  </si>
-  <si>
-    <t>Outgoing payment Amount</t>
-  </si>
-  <si>
-    <t>Beneficiary</t>
-  </si>
-  <si>
-    <t>PO Number</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>Customer/Source</t>
-  </si>
-  <si>
-    <t>Planned Incoming Payment Date</t>
-  </si>
-  <si>
-    <t>Actual Incoming Payment Date</t>
-  </si>
-  <si>
-    <t>Incoming Payment Status</t>
-  </si>
-  <si>
-    <t>Planned Outgoing Payment Date</t>
-  </si>
-  <si>
-    <t>Actual Outgoing Payment Date</t>
-  </si>
-  <si>
-    <t>Outgoing Payment Status</t>
-  </si>
-  <si>
-    <t>Actual Incoming Payment Amount Received</t>
-  </si>
-  <si>
-    <t>Actual Outgoing Payment Amount Paid</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Document Description</t>
-  </si>
-  <si>
-    <t>Customer/Supplier Document Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t> </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传一个文件customer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer&amp;manager</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Progress||manager</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer&amp;manager</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Paid||manager</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager，钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,20 +1076,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1029,7 +1097,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1047,14 +1115,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1062,7 +1130,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1070,21 +1138,28 @@
       <u/>
       <sz val="20"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1755,10 +1830,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,10 +1890,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1946,6 +2021,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1991,60 +2114,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2349,88 +2424,88 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="18" style="40" customWidth="1"/>
-    <col min="12" max="12" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="28" customFormat="1" ht="25">
+    <row r="1" spans="1:11" s="28" customFormat="1" ht="51">
       <c r="A1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
       <c r="K1" s="40"/>
     </row>
-    <row r="2" spans="1:11" s="40" customFormat="1" ht="25">
+    <row r="2" spans="1:11" s="40" customFormat="1" ht="25.5">
       <c r="A2" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-    </row>
-    <row r="3" spans="1:11" s="40" customFormat="1" ht="50">
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="1:11" s="40" customFormat="1" ht="51">
       <c r="A3" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-    </row>
-    <row r="4" spans="1:11" s="28" customFormat="1" ht="25">
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+    </row>
+    <row r="4" spans="1:11" s="28" customFormat="1" ht="51">
       <c r="A4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="28" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" s="28" customFormat="1" ht="25">
+    <row r="5" spans="1:11" s="28" customFormat="1" ht="25.5">
       <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="28" t="s">
         <v>68</v>
       </c>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" ht="25">
+    <row r="6" spans="1:11" s="28" customFormat="1" ht="25.5">
       <c r="A6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
       <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" s="28" customFormat="1" ht="25">
+    <row r="7" spans="1:11" s="28" customFormat="1" ht="25.5">
       <c r="A7" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" ht="25">
-      <c r="A8" s="121" t="s">
+    <row r="8" spans="1:11" s="28" customFormat="1" ht="25.5">
+      <c r="A8" s="106" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -2444,30 +2519,30 @@
       </c>
       <c r="K8" s="40"/>
     </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" ht="25">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:11" s="28" customFormat="1" ht="25.5">
+      <c r="A9" s="107"/>
       <c r="B9" s="54"/>
       <c r="C9" s="59"/>
       <c r="D9" s="55"/>
       <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" ht="51" thickBot="1">
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="51.75" thickBot="1">
       <c r="A10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
       <c r="K10" s="40"/>
     </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" ht="26" thickBot="1">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+    <row r="11" spans="1:11" s="28" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
       <c r="K11" s="40"/>
     </row>
-    <row r="12" spans="1:11" s="28" customFormat="1" ht="50">
+    <row r="12" spans="1:11" s="28" customFormat="1" ht="51">
       <c r="A12" s="41" t="s">
         <v>58</v>
       </c>
@@ -2476,7 +2551,7 @@
       <c r="D12" s="49"/>
       <c r="K12" s="40"/>
     </row>
-    <row r="13" spans="1:11" s="28" customFormat="1" ht="50">
+    <row r="13" spans="1:11" s="28" customFormat="1" ht="51">
       <c r="A13" s="42" t="s">
         <v>59</v>
       </c>
@@ -2491,7 +2566,7 @@
       </c>
       <c r="K13" s="40"/>
     </row>
-    <row r="14" spans="1:11" s="28" customFormat="1" ht="51" thickBot="1">
+    <row r="14" spans="1:11" s="28" customFormat="1" ht="51.75" thickBot="1">
       <c r="A14" s="43" t="s">
         <v>63</v>
       </c>
@@ -2506,45 +2581,45 @@
       </c>
       <c r="K14" s="40"/>
     </row>
-    <row r="15" spans="1:11" s="28" customFormat="1" ht="26" thickBot="1">
+    <row r="15" spans="1:11" s="28" customFormat="1" ht="26.25" thickBot="1">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
       <c r="G15" s="28" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" s="28" customFormat="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
       <c r="K16" s="40"/>
     </row>
-    <row r="17" spans="1:12" s="28" customFormat="1" ht="15" thickBot="1">
-      <c r="A17" s="117"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="115"/>
+    <row r="17" spans="1:12" s="28" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A17" s="102"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
       <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:12" s="28" customFormat="1">
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="K19" s="40"/>
     </row>
-    <row r="20" spans="1:12" ht="61" thickBot="1">
+    <row r="20" spans="1:12" ht="81.75" thickBot="1">
       <c r="A20" s="30" t="s">
         <v>0</v>
       </c>
@@ -2567,19 +2642,19 @@
         <v>47</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I20" s="83" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K20" s="83" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L20" s="50" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2714,7 +2789,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="88"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" ht="27">
       <c r="A28" s="4"/>
       <c r="B28" s="15" t="s">
         <v>16</v>
@@ -2806,7 +2881,7 @@
       <c r="K32" s="26"/>
       <c r="L32" s="88"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="27">
       <c r="A33" s="4"/>
       <c r="B33" s="15" t="s">
         <v>21</v>
@@ -2824,7 +2899,7 @@
       <c r="K33" s="26"/>
       <c r="L33" s="88"/>
     </row>
-    <row r="34" spans="1:12" ht="56">
+    <row r="34" spans="1:12" ht="67.5">
       <c r="A34" s="4"/>
       <c r="B34" s="15" t="s">
         <v>22</v>
@@ -2840,7 +2915,7 @@
       <c r="K34" s="26"/>
       <c r="L34" s="88"/>
     </row>
-    <row r="35" spans="1:12" ht="28">
+    <row r="35" spans="1:12" ht="40.5">
       <c r="A35" s="4"/>
       <c r="B35" s="15" t="s">
         <v>23</v>
@@ -2858,7 +2933,7 @@
       <c r="K35" s="26"/>
       <c r="L35" s="88"/>
     </row>
-    <row r="36" spans="1:12" ht="28">
+    <row r="36" spans="1:12" ht="27">
       <c r="A36" s="4"/>
       <c r="B36" s="15" t="s">
         <v>25</v>
@@ -2908,7 +2983,7 @@
       <c r="K38" s="26"/>
       <c r="L38" s="88"/>
     </row>
-    <row r="39" spans="1:12" ht="28">
+    <row r="39" spans="1:12" ht="27">
       <c r="A39" s="4"/>
       <c r="B39" s="15" t="s">
         <v>29</v>
@@ -2958,7 +3033,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="88"/>
     </row>
-    <row r="42" spans="1:12" ht="28">
+    <row r="42" spans="1:12" ht="40.5">
       <c r="A42" s="4"/>
       <c r="B42" s="15" t="s">
         <v>33</v>
@@ -2994,7 +3069,7 @@
       <c r="K43" s="26"/>
       <c r="L43" s="88"/>
     </row>
-    <row r="44" spans="1:12" ht="28">
+    <row r="44" spans="1:12" ht="27">
       <c r="A44" s="4"/>
       <c r="B44" s="15" t="s">
         <v>36</v>
@@ -3010,7 +3085,7 @@
       <c r="K44" s="26"/>
       <c r="L44" s="88"/>
     </row>
-    <row r="45" spans="1:12" ht="28">
+    <row r="45" spans="1:12" ht="27">
       <c r="A45" s="4"/>
       <c r="B45" s="15" t="s">
         <v>37</v>
@@ -3066,7 +3141,7 @@
       <c r="K47" s="26"/>
       <c r="L47" s="88"/>
     </row>
-    <row r="48" spans="1:12" ht="28">
+    <row r="48" spans="1:12" ht="27">
       <c r="A48" s="7" t="s">
         <v>40</v>
       </c>
@@ -3086,7 +3161,7 @@
       <c r="K48" s="26"/>
       <c r="L48" s="88"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="27">
       <c r="A49" s="4"/>
       <c r="B49" s="15" t="s">
         <v>42</v>
@@ -3104,7 +3179,7 @@
       <c r="K49" s="26"/>
       <c r="L49" s="88"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1">
+    <row r="50" spans="1:12" ht="27.75" thickBot="1">
       <c r="A50" s="9"/>
       <c r="B50" s="18" t="s">
         <v>44</v>
@@ -3122,11 +3197,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
@@ -3134,7 +3204,13 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" display="wengkin@jenkins-asia.com"/>
     <hyperlink ref="C13" r:id="rId2"/>
@@ -3156,14 +3232,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="74" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3181,82 +3258,82 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="40" customWidth="1"/>
     <col min="9" max="9" width="30.5" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.5" style="40" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="26" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="P1" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>315</v>
-      </c>
       <c r="R1" s="61" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3440,6 +3517,7 @@
       <c r="R10" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3453,37 +3531,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="31.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -3856,15 +3934,16 @@
     </row>
     <row r="16" spans="1:28">
       <c r="D16" s="40" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3882,19 +3961,19 @@
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="8" width="16.83203125" style="40" customWidth="1"/>
+    <col min="5" max="8" width="16.875" style="40" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="12" width="20.5" style="40" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1640625" customWidth="1"/>
-    <col min="15" max="15" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.125" customWidth="1"/>
+    <col min="15" max="15" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
@@ -4110,6 +4189,7 @@
       <c r="N10" s="63"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4127,22 +4207,22 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="40" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="17" width="20.5" style="40" customWidth="1"/>
-    <col min="18" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4455,6 +4535,7 @@
       <c r="R21" s="40"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4472,18 +4553,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="4" width="19.33203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="4" width="19.375" style="40" customWidth="1"/>
     <col min="5" max="5" width="36" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="15.33203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="15.375" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4590,17 +4671,17 @@
     </row>
     <row r="23" spans="1:18" s="40" customFormat="1">
       <c r="A23" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="40" customFormat="1">
       <c r="A25" s="40" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="40" customFormat="1"/>
@@ -4618,13 +4699,13 @@
         <v>200</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>188</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>189</v>
@@ -4657,7 +4738,7 @@
         <v>191</v>
       </c>
       <c r="R27" s="61" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4723,6 +4804,7 @@
       <c r="R30" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4734,175 +4816,242 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="18.6640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5" style="40" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="40" customWidth="1"/>
-    <col min="21" max="21" width="15.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="19.1640625" style="40" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19" style="40" customWidth="1"/>
-    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" style="40" customWidth="1"/>
-    <col min="30" max="30" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="40"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.5" style="40" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="40" customWidth="1"/>
+    <col min="14" max="14" width="23" style="40" customWidth="1"/>
+    <col min="15" max="15" width="23.25" style="40" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="40" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.125" style="40" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="19" style="40" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19" style="40" customWidth="1"/>
+    <col min="31" max="31" width="23.125" customWidth="1"/>
+    <col min="32" max="32" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:32">
+      <c r="B1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>226</v>
-      </c>
       <c r="C1" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="M1" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="X1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="AA1" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE1" s="61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="AF1" s="61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>331</v>
+      </c>
       <c r="S2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+        <v>335</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="W2" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="26"/>
+        <v>336</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF2" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="40" t="s">
+        <v>326</v>
+      </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -4920,16 +5069,16 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
-      <c r="W3" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="X3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26" t="s">
+        <v>223</v>
+      </c>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="26"/>
@@ -4937,9 +5086,9 @@
       <c r="AC3" s="26"/>
       <c r="AD3" s="26"/>
       <c r="AE3" s="26"/>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="26"/>
+      <c r="AF3" s="26"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -4957,16 +5106,16 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="26"/>
-      <c r="W4" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="X4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="61" t="s">
+        <v>224</v>
+      </c>
       <c r="Y4" s="26"/>
       <c r="Z4" s="26"/>
       <c r="AA4" s="26"/>
@@ -4974,9 +5123,9 @@
       <c r="AC4" s="26"/>
       <c r="AD4" s="26"/>
       <c r="AE4" s="26"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="26"/>
+      <c r="AF4" s="26"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -4994,10 +5143,10 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
-      <c r="S5" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="T5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="61" t="s">
+        <v>225</v>
+      </c>
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
       <c r="W5" s="26"/>
@@ -5009,14 +5158,22 @@
       <c r="AC5" s="26"/>
       <c r="AD5" s="26"/>
       <c r="AE5" s="26"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="S6" s="27" t="s">
+      <c r="AF5" s="26"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="T6" s="27" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="7" spans="1:32">
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5033,10 +5190,10 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -5044,97 +5201,98 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="40" customFormat="1"/>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
         <v>237</v>
       </c>
-      <c r="C11" t="s">
-        <v>242</v>
-      </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5152,11 +5310,11 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
@@ -5165,35 +5323,35 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="74" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>186</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -5204,60 +5362,61 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="74" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="40" customFormat="1">
       <c r="A14" s="40" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="74" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5275,12 +5434,12 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
@@ -5288,15 +5447,15 @@
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
     <col min="13" max="13" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.6640625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.625" style="40" customWidth="1"/>
     <col min="17" max="17" width="33.5" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" style="40" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.5" style="40" customWidth="1"/>
     <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -5328,40 +5487,40 @@
         <v>73</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K1" s="61" t="s">
         <v>74</v>
       </c>
       <c r="L1" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="P1" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="U1" s="61" t="s">
         <v>285</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q1" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="S1" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="T1" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -5375,12 +5534,12 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
@@ -5389,7 +5548,7 @@
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
       <c r="T2" s="26" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="U2" s="26"/>
     </row>
@@ -5404,7 +5563,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
@@ -5429,7 +5588,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
@@ -5454,7 +5613,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
@@ -5479,7 +5638,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
@@ -5504,7 +5663,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
@@ -5519,6 +5678,7 @@
       <c r="U7" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
